--- a/tietokanta/class_advancement/Class_advancement.xlsx
+++ b/tietokanta/class_advancement/Class_advancement.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_advancement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841FEDF8-A8EA-4B5A-8EE1-2F2299670658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0CBD5D-C8D4-4A54-A264-C12C07D47F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2865" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -46,14 +54,174 @@
   </si>
   <si>
     <t>Ranger||||Rogue</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Alchemist</t>
+  </si>
+  <si>
+    <t>Formula Book</t>
+  </si>
+  <si>
+    <t>Field Discovery</t>
+  </si>
+  <si>
+    <t>Iron Will</t>
+  </si>
+  <si>
+    <t>Perpetal Infusions</t>
+  </si>
+  <si>
+    <t>Double Brew</t>
+  </si>
+  <si>
+    <t>Alchemical Experise</t>
+  </si>
+  <si>
+    <t>Alertness</t>
+  </si>
+  <si>
+    <t>Juggernaut</t>
+  </si>
+  <si>
+    <t>Perpetual Potency</t>
+  </si>
+  <si>
+    <t>Greater Field Discovery</t>
+  </si>
+  <si>
+    <t>Alchemical Alacrity</t>
+  </si>
+  <si>
+    <t>Perpetual Perfection</t>
+  </si>
+  <si>
+    <t>Rage</t>
+  </si>
+  <si>
+    <t>Deny Advantage</t>
+  </si>
+  <si>
+    <t>Brutality</t>
+  </si>
+  <si>
+    <t>Lightning Reflexes</t>
+  </si>
+  <si>
+    <t>Raging Resistance</t>
+  </si>
+  <si>
+    <t>Mighty Rage</t>
+  </si>
+  <si>
+    <t>Greater Juggernaut</t>
+  </si>
+  <si>
+    <t>Alchemist||||Barbarian</t>
+  </si>
+  <si>
+    <t>Weapon Fury</t>
+  </si>
+  <si>
+    <t>Indomitable Will</t>
+  </si>
+  <si>
+    <t>Heightened Senses</t>
+  </si>
+  <si>
+    <t>Quick Rage</t>
+  </si>
+  <si>
+    <t>Devastator</t>
+  </si>
+  <si>
+    <t>Armor of Fury</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Barbarian||||Bard</t>
+  </si>
+  <si>
+    <t>Greater Fortitude</t>
+  </si>
+  <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>Vigilant Senses</t>
+  </si>
+  <si>
+    <t>Greater Resolve</t>
+  </si>
+  <si>
+    <t>Magnum Opus</t>
+  </si>
+  <si>
+    <t>Bard</t>
+  </si>
+  <si>
+    <t>REDO:</t>
+  </si>
+  <si>
+    <t>esim. master spellcaster = occultism|master</t>
+  </si>
+  <si>
+    <t>description vaikuttaa character sheet ulkopuolisesti</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">merkkaa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kaikki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> adv ja maarita effect</t>
+    </r>
+  </si>
+  <si>
+    <t>class progression excel sisaltaa MITA saadaan</t>
+  </si>
+  <si>
+    <t>advancement maarittelee ne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -363,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,10 +542,12 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="6" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,24 +557,288 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tietokanta/class_advancement/Class_advancement.xlsx
+++ b/tietokanta/class_advancement/Class_advancement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_advancement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0CBD5D-C8D4-4A54-A264-C12C07D47F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9326D10B-F625-45D2-9FCA-A91AD6448599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2865" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>

--- a/tietokanta/class_advancement/Class_advancement.xlsx
+++ b/tietokanta/class_advancement/Class_advancement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_advancement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9326D10B-F625-45D2-9FCA-A91AD6448599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB01647B-F771-4C61-BAB0-7C51F9BEA27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Greater Juggernaut</t>
   </si>
   <si>
-    <t>Alchemist||||Barbarian</t>
-  </si>
-  <si>
     <t>Weapon Fury</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
   </si>
   <si>
     <t>Barbarian</t>
-  </si>
-  <si>
-    <t>Barbarian||||Bard</t>
-  </si>
-  <si>
-    <t>Greater Fortitude</t>
   </si>
   <si>
     <t>Resolve</t>
@@ -207,12 +198,470 @@
   <si>
     <t>advancement maarittelee ne</t>
   </si>
+  <si>
+    <t>Quick Alchemy</t>
+  </si>
+  <si>
+    <t>Alchemical Weapon Expertise</t>
+  </si>
+  <si>
+    <t>simple|expert|||bombs|expert</t>
+  </si>
+  <si>
+    <t>Fortitude|Master</t>
+  </si>
+  <si>
+    <t>Perception|Expert</t>
+  </si>
+  <si>
+    <t>classDC|Expert</t>
+  </si>
+  <si>
+    <t>Will|Expert</t>
+  </si>
+  <si>
+    <t>Light Armor Expertise</t>
+  </si>
+  <si>
+    <t>Light|Expert|||Unarmored|Expert</t>
+  </si>
+  <si>
+    <t>Weapon Specialization</t>
+  </si>
+  <si>
+    <t>Reflex|Master</t>
+  </si>
+  <si>
+    <t>Alchemical Mastery</t>
+  </si>
+  <si>
+    <t>Light Armor Mastery</t>
+  </si>
+  <si>
+    <t>Light|Master|||Unarmored|Master</t>
+  </si>
+  <si>
+    <t>Feat(Class)</t>
+  </si>
+  <si>
+    <t>Feat(Skill)</t>
+  </si>
+  <si>
+    <t>Feat(General)</t>
+  </si>
+  <si>
+    <t>SkillIncrease</t>
+  </si>
+  <si>
+    <t>AbilityBoost</t>
+  </si>
+  <si>
+    <t>Feat(Ancestry)</t>
+  </si>
+  <si>
+    <t>Simple|Expert|||Martial|Expert|||Unarmed|Expert</t>
+  </si>
+  <si>
+    <t>Fortitude|Legendary</t>
+  </si>
+  <si>
+    <t>Medium Armor Expertise</t>
+  </si>
+  <si>
+    <t>Light|Expert|||Medium|Expert|||Unarmored|Expert</t>
+  </si>
+  <si>
+    <t>Simple|Master|||Martial|Master|||Unarmed|Master</t>
+  </si>
+  <si>
+    <t>Greater Weapon Specialization</t>
+  </si>
+  <si>
+    <t>Will|Master</t>
+  </si>
+  <si>
+    <t>Perception|Master</t>
+  </si>
+  <si>
+    <t>Light|Master|||Medium|Master|||Unarmored|Master</t>
+  </si>
+  <si>
+    <t>classDC|Master</t>
+  </si>
+  <si>
+    <t>Spellcasting Occult</t>
+  </si>
+  <si>
+    <t>Spells</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Characteristic|++</t>
+  </si>
+  <si>
+    <t>route ancestry feat</t>
+  </si>
+  <si>
+    <t>route general feat</t>
+  </si>
+  <si>
+    <t>route skill feat</t>
+  </si>
+  <si>
+    <t>route class feat</t>
+  </si>
+  <si>
+    <t>esim. expert =&gt; master</t>
+  </si>
+  <si>
+    <t>Onko trained, expert, master, legendary taulukoituna?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> athletics[2] = expert</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">athletics|++ </t>
+  </si>
+  <si>
+    <t>athletics[2] =&gt; athletics[3]</t>
+  </si>
+  <si>
+    <t>skills[randomskill[++]]</t>
+  </si>
+  <si>
+    <t>FocusPool|1</t>
+  </si>
+  <si>
+    <t>Reflex|Expert</t>
+  </si>
+  <si>
+    <t>Signature Spell</t>
+  </si>
+  <si>
+    <t>Expert Spellcaster</t>
+  </si>
+  <si>
+    <t>Fortitude|Expert</t>
+  </si>
+  <si>
+    <t>Bard Weapon Expertise</t>
+  </si>
+  <si>
+    <t>special weapon grps classeille expert</t>
+  </si>
+  <si>
+    <t>InitialWeapons|Expert</t>
+  </si>
+  <si>
+    <t>Alchemist||||Bard</t>
+  </si>
+  <si>
+    <t>Master Spellcaster</t>
+  </si>
+  <si>
+    <t>SpellDC|Expert</t>
+  </si>
+  <si>
+    <t>Will|Legendary</t>
+  </si>
+  <si>
+    <t>Legendary Spellcaster</t>
+  </si>
+  <si>
+    <t>SpellDC|Legendary</t>
+  </si>
+  <si>
+    <t>Deity</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Deitic Weapon</t>
+  </si>
+  <si>
+    <t>Champion's React</t>
+  </si>
+  <si>
+    <t>Devotion Spell</t>
+  </si>
+  <si>
+    <t>Shield Block</t>
+  </si>
+  <si>
+    <t>Divine Ally</t>
+  </si>
+  <si>
+    <t>General Feat(Shield Block)</t>
+  </si>
+  <si>
+    <t>Weapon Expertise</t>
+  </si>
+  <si>
+    <t>Simple|Expert|||Martial|Expert</t>
+  </si>
+  <si>
+    <t>Armor Expertise</t>
+  </si>
+  <si>
+    <t>Light|Expert|||Medium|Expert|||Heavy|Expert|||Unarmored|Expert</t>
+  </si>
+  <si>
+    <t>Champion Expertise</t>
+  </si>
+  <si>
+    <t>ClassDC|Expert</t>
+  </si>
+  <si>
+    <t>Divine Smite</t>
+  </si>
+  <si>
+    <t>Divine Will</t>
+  </si>
+  <si>
+    <t>Exalt</t>
+  </si>
+  <si>
+    <t>Armor Mastery</t>
+  </si>
+  <si>
+    <t>Light|Master|||Medium|Master|||Heavy|Master|||Unarmored|Master</t>
+  </si>
+  <si>
+    <t>Simple|Master|||Martial|Master</t>
+  </si>
+  <si>
+    <t>Weapon Mastery</t>
+  </si>
+  <si>
+    <t>Legendary Armor</t>
+  </si>
+  <si>
+    <t>Light|Legendary|||Medium|Legendary|||Heavy|Legendary|||Unarmored|Legendary</t>
+  </si>
+  <si>
+    <t>Hero's Defiance</t>
+  </si>
+  <si>
+    <t>spell levels?</t>
+  </si>
+  <si>
+    <t>Champion Feat =&gt; Feat(Class)</t>
+  </si>
+  <si>
+    <t>Champion||||Cleric</t>
+  </si>
+  <si>
+    <t>Divine Spellcasting</t>
+  </si>
+  <si>
+    <t>Cleric</t>
+  </si>
+  <si>
+    <t>Divine Font</t>
+  </si>
+  <si>
+    <t>SpellSchool|Divine</t>
+  </si>
+  <si>
+    <t>Divine Defense</t>
+  </si>
+  <si>
+    <t>Unarmored|Master</t>
+  </si>
+  <si>
+    <t>Miraculous Spell</t>
+  </si>
+  <si>
+    <t>Doctrine for clerics?</t>
+  </si>
+  <si>
+    <t>Doctrine 1, etc.</t>
+  </si>
+  <si>
+    <t>Doctrine 1</t>
+  </si>
+  <si>
+    <t>Doctrine 2</t>
+  </si>
+  <si>
+    <t>Doctrine 3</t>
+  </si>
+  <si>
+    <t>Doctrine 4</t>
+  </si>
+  <si>
+    <t>Doctrine 5</t>
+  </si>
+  <si>
+    <t>Doctrine 6</t>
+  </si>
+  <si>
+    <t>jaettu initial feat mukaan</t>
+  </si>
+  <si>
+    <t>Anathema</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>Language Druidic</t>
+  </si>
+  <si>
+    <t>Wild Empathy</t>
+  </si>
+  <si>
+    <t>Alchemist||||Champion||||Cleric||||Druid</t>
+  </si>
+  <si>
+    <t>Great Fortitude</t>
+  </si>
+  <si>
+    <t>Bard||||Druid</t>
+  </si>
+  <si>
+    <t>Barbarian||||Bard||||Champion||||Cleric||||Druid</t>
+  </si>
+  <si>
+    <t>Primal Spellcasting</t>
+  </si>
+  <si>
+    <t>Druid Weapon Expertise</t>
+  </si>
+  <si>
+    <t>Simple|Expert|||Unarmed|Expert</t>
+  </si>
+  <si>
+    <t>Bard||||Cleric||||Druid</t>
+  </si>
+  <si>
+    <t>Barbarian||||Druid</t>
+  </si>
+  <si>
+    <t>Primal Hierophant</t>
+  </si>
+  <si>
+    <t>Attack of Opportunity</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Champion||||Druid||||Fighter</t>
+  </si>
+  <si>
+    <t>Bravery</t>
+  </si>
+  <si>
+    <t>Fighter Weapon Mastery</t>
+  </si>
+  <si>
+    <t>Simple|Master|||Martial|Master|||Advanced|Expert</t>
+  </si>
+  <si>
+    <t>Battlefield Surveyor</t>
+  </si>
+  <si>
+    <t>Alchemist||||Barbarian||||Bard|||Champion||||Cleric||||Druid||||Fighter</t>
+  </si>
+  <si>
+    <t>Combat Flexibility</t>
+  </si>
+  <si>
+    <t>Alchemist||||Barbarian||||Champion||||Fighter</t>
+  </si>
+  <si>
+    <t>Champion||||Fighter</t>
+  </si>
+  <si>
+    <t>Fighter Expertise</t>
+  </si>
+  <si>
+    <t>Weapon Legend</t>
+  </si>
+  <si>
+    <t>Weapon Grp Weapon Legend effects</t>
+  </si>
+  <si>
+    <t>Barbarian||||Champion||||Fighter</t>
+  </si>
+  <si>
+    <t>Improved Flexibility</t>
+  </si>
+  <si>
+    <t>Weapon Grp Versatile Legend effects</t>
+  </si>
+  <si>
+    <t>Versatile Legend</t>
+  </si>
+  <si>
+    <t>Simple|Legendary|||Martial|Legendary|||Advanced|Master|||ClassDC|Master</t>
+  </si>
+  <si>
+    <t>TODO:</t>
+  </si>
+  <si>
+    <t>weapon grp fighter</t>
+  </si>
+  <si>
+    <t>initialweapons</t>
+  </si>
+  <si>
+    <t>spellschools</t>
+  </si>
+  <si>
+    <t>castingmodifier</t>
+  </si>
+  <si>
+    <t>spell levels</t>
+  </si>
+  <si>
+    <t>Monk</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Sorcerer</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>doctrine cleric</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +673,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,8 +704,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -531,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +1001,7 @@
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -571,10 +1028,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -585,259 +1042,983 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>42</v>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tietokanta/class_advancement/Class_advancement.xlsx
+++ b/tietokanta/class_advancement/Class_advancement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_advancement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB01647B-F771-4C61-BAB0-7C51F9BEA27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051C8E2F-B866-4143-8496-93C2CFAA4E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tietokanta/class_advancement/Class_advancement.xlsx
+++ b/tietokanta/class_advancement/Class_advancement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_advancement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051C8E2F-B866-4143-8496-93C2CFAA4E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D8F94-259B-4880-82A2-4C7954A51A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -158,56 +158,12 @@
     <t>Bard</t>
   </si>
   <si>
-    <t>REDO:</t>
-  </si>
-  <si>
-    <t>esim. master spellcaster = occultism|master</t>
-  </si>
-  <si>
-    <t>description vaikuttaa character sheet ulkopuolisesti</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">merkkaa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kaikki</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adv ja maarita effect</t>
-    </r>
-  </si>
-  <si>
-    <t>class progression excel sisaltaa MITA saadaan</t>
-  </si>
-  <si>
-    <t>advancement maarittelee ne</t>
-  </si>
-  <si>
     <t>Quick Alchemy</t>
   </si>
   <si>
     <t>Alchemical Weapon Expertise</t>
   </si>
   <si>
-    <t>simple|expert|||bombs|expert</t>
-  </si>
-  <si>
     <t>Fortitude|Master</t>
   </si>
   <si>
@@ -292,9 +248,6 @@
     <t>Spellcasting Occult</t>
   </si>
   <si>
-    <t>Spells</t>
-  </si>
-  <si>
     <t>Composition</t>
   </si>
   <si>
@@ -316,38 +269,6 @@
     <t>esim. expert =&gt; master</t>
   </si>
   <si>
-    <t>Onko trained, expert, master, legendary taulukoituna?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esim</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> athletics[2] = expert</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">athletics|++ </t>
-  </si>
-  <si>
-    <t>athletics[2] =&gt; athletics[3]</t>
-  </si>
-  <si>
     <t>skills[randomskill[++]]</t>
   </si>
   <si>
@@ -357,9 +278,6 @@
     <t>Reflex|Expert</t>
   </si>
   <si>
-    <t>Signature Spell</t>
-  </si>
-  <si>
     <t>Expert Spellcaster</t>
   </si>
   <si>
@@ -369,15 +287,9 @@
     <t>Bard Weapon Expertise</t>
   </si>
   <si>
-    <t>special weapon grps classeille expert</t>
-  </si>
-  <si>
     <t>InitialWeapons|Expert</t>
   </si>
   <si>
-    <t>Alchemist||||Bard</t>
-  </si>
-  <si>
     <t>Master Spellcaster</t>
   </si>
   <si>
@@ -465,12 +377,6 @@
     <t>Hero's Defiance</t>
   </si>
   <si>
-    <t>spell levels?</t>
-  </si>
-  <si>
-    <t>Champion Feat =&gt; Feat(Class)</t>
-  </si>
-  <si>
     <t>Champion||||Cleric</t>
   </si>
   <si>
@@ -495,12 +401,6 @@
     <t>Miraculous Spell</t>
   </si>
   <si>
-    <t>Doctrine for clerics?</t>
-  </si>
-  <si>
-    <t>Doctrine 1, etc.</t>
-  </si>
-  <si>
     <t>Doctrine 1</t>
   </si>
   <si>
@@ -519,9 +419,6 @@
     <t>Doctrine 6</t>
   </si>
   <si>
-    <t>jaettu initial feat mukaan</t>
-  </si>
-  <si>
     <t>Anathema</t>
   </si>
   <si>
@@ -534,18 +431,9 @@
     <t>Wild Empathy</t>
   </si>
   <si>
-    <t>Alchemist||||Champion||||Cleric||||Druid</t>
-  </si>
-  <si>
     <t>Great Fortitude</t>
   </si>
   <si>
-    <t>Bard||||Druid</t>
-  </si>
-  <si>
-    <t>Barbarian||||Bard||||Champion||||Cleric||||Druid</t>
-  </si>
-  <si>
     <t>Primal Spellcasting</t>
   </si>
   <si>
@@ -555,12 +443,6 @@
     <t>Simple|Expert|||Unarmed|Expert</t>
   </si>
   <si>
-    <t>Bard||||Cleric||||Druid</t>
-  </si>
-  <si>
-    <t>Barbarian||||Druid</t>
-  </si>
-  <si>
     <t>Primal Hierophant</t>
   </si>
   <si>
@@ -585,15 +467,9 @@
     <t>Battlefield Surveyor</t>
   </si>
   <si>
-    <t>Alchemist||||Barbarian||||Bard|||Champion||||Cleric||||Druid||||Fighter</t>
-  </si>
-  <si>
     <t>Combat Flexibility</t>
   </si>
   <si>
-    <t>Alchemist||||Barbarian||||Champion||||Fighter</t>
-  </si>
-  <si>
     <t>Champion||||Fighter</t>
   </si>
   <si>
@@ -606,9 +482,6 @@
     <t>Weapon Grp Weapon Legend effects</t>
   </si>
   <si>
-    <t>Barbarian||||Champion||||Fighter</t>
-  </si>
-  <si>
     <t>Improved Flexibility</t>
   </si>
   <si>
@@ -621,24 +494,6 @@
     <t>Simple|Legendary|||Martial|Legendary|||Advanced|Master|||ClassDC|Master</t>
   </si>
   <si>
-    <t>TODO:</t>
-  </si>
-  <si>
-    <t>weapon grp fighter</t>
-  </si>
-  <si>
-    <t>initialweapons</t>
-  </si>
-  <si>
-    <t>spellschools</t>
-  </si>
-  <si>
-    <t>castingmodifier</t>
-  </si>
-  <si>
-    <t>spell levels</t>
-  </si>
-  <si>
     <t>Monk</t>
   </si>
   <si>
@@ -654,23 +509,279 @@
     <t>Wizard</t>
   </si>
   <si>
-    <t>doctrine cleric</t>
+    <t>Flurry of Blow</t>
+  </si>
+  <si>
+    <t>Powerful Fist</t>
+  </si>
+  <si>
+    <t>Movement Increase(10)</t>
+  </si>
+  <si>
+    <t>Movement Increase(5)</t>
+  </si>
+  <si>
+    <t>BaseSpeed++|||BaseSpeed++</t>
+  </si>
+  <si>
+    <t>BaseSpeed++</t>
+  </si>
+  <si>
+    <t>Mystic Strikes</t>
+  </si>
+  <si>
+    <t>Expert Strikes</t>
+  </si>
+  <si>
+    <t>Path to Perfection</t>
+  </si>
+  <si>
+    <t>Metal Strikes</t>
+  </si>
+  <si>
+    <t>Monk Expertise</t>
+  </si>
+  <si>
+    <t>Path to Perfection 2</t>
+  </si>
+  <si>
+    <t>Graceful Mastery</t>
+  </si>
+  <si>
+    <t>Master Strikes</t>
+  </si>
+  <si>
+    <t>Simple|Master|||Unarmed|Master</t>
+  </si>
+  <si>
+    <t>Adamantine Strikes</t>
+  </si>
+  <si>
+    <t>Graceful Legend</t>
+  </si>
+  <si>
+    <t>Perfected Form</t>
+  </si>
+  <si>
+    <t>ClassDC|Master</t>
+  </si>
+  <si>
+    <t>ClassDC|Master|||Unarmored|Legendary</t>
+  </si>
+  <si>
+    <t>Hunt Prey</t>
+  </si>
+  <si>
+    <t>Alchemist||||Ranger</t>
+  </si>
+  <si>
+    <t>Trackless Step</t>
+  </si>
+  <si>
+    <t>Champion||||Ranger</t>
+  </si>
+  <si>
+    <t>Bard||||Ranger</t>
+  </si>
+  <si>
+    <t>Ranger Expertise</t>
+  </si>
+  <si>
+    <t>Nature's Edge</t>
+  </si>
+  <si>
+    <t>Barbarian||||Druid||||Ranger</t>
+  </si>
+  <si>
+    <t>Alchemist||||Barbarian||||Champion||||Fighter||||Ranger</t>
+  </si>
+  <si>
+    <t>Wild Stride</t>
+  </si>
+  <si>
+    <t>Incredible Senses</t>
+  </si>
+  <si>
+    <t>Masterful Hunter</t>
+  </si>
+  <si>
+    <t>Second Skin</t>
+  </si>
+  <si>
+    <t>Light|Master|||Medium|||Master|||Unarmored|Master</t>
+  </si>
+  <si>
+    <t>Swift Prey</t>
+  </si>
+  <si>
+    <t>Sneak Attack 1</t>
+  </si>
+  <si>
+    <t>Surprise Attack</t>
+  </si>
+  <si>
+    <t>Barbarian||||Rogue</t>
+  </si>
+  <si>
+    <t>Sneak Attack 2</t>
+  </si>
+  <si>
+    <t>Debilitating Strike</t>
+  </si>
+  <si>
+    <t>Bard||||Druid||||Rogue</t>
+  </si>
+  <si>
+    <t>Rogue Expertise</t>
+  </si>
+  <si>
+    <t>Sneak Attack 3</t>
+  </si>
+  <si>
+    <t>Alchemist||||Bard||||Rogue</t>
+  </si>
+  <si>
+    <t>Master Tricks</t>
+  </si>
+  <si>
+    <t>Double Debilitation</t>
+  </si>
+  <si>
+    <t>Slippery Mind</t>
+  </si>
+  <si>
+    <t>Sneak Attack 4</t>
+  </si>
+  <si>
+    <t>Alchemist||||Rogue</t>
+  </si>
+  <si>
+    <t>Barbarian||||Champion||||Fighter||||Monk||||Ranger||||Rogue</t>
+  </si>
+  <si>
+    <t>Master Strike</t>
+  </si>
+  <si>
+    <t>InitialWeapon|Expert</t>
+  </si>
+  <si>
+    <t>InitialWeapon|Master</t>
+  </si>
+  <si>
+    <t>Bard||||Sorcerer</t>
+  </si>
+  <si>
+    <t>Magical Fortitude</t>
+  </si>
+  <si>
+    <t>Bard||||Druid||||Sorcerer</t>
+  </si>
+  <si>
+    <t>Simple Weapon Expertise</t>
+  </si>
+  <si>
+    <t>Simple|Expert</t>
+  </si>
+  <si>
+    <t>Defensive Robes</t>
+  </si>
+  <si>
+    <t>Bloodline Paragon</t>
+  </si>
+  <si>
+    <t>Signature Spells</t>
+  </si>
+  <si>
+    <t>Unarmored|Expert</t>
+  </si>
+  <si>
+    <t>Arcane Bond</t>
+  </si>
+  <si>
+    <t>Barbarian||||Bard||||Champion||||Cleric||||Druid||||Sorcerer||||Wizard</t>
+  </si>
+  <si>
+    <t>Sorcerer||||Wizard</t>
+  </si>
+  <si>
+    <t>Alchemist||||Champion||||Cleric||||Druid||||Monk||||Sorcerer||||Wizard</t>
+  </si>
+  <si>
+    <t>Alchemist||||Barbarian||||Bard|||Champion||||Cleric||||Druid||||Fighter||||Monk||||Ranger||||Rogue||||Sorcerer||||Wizard</t>
+  </si>
+  <si>
+    <t>Bard||||Cleric||||Druid||||Wizard</t>
+  </si>
+  <si>
+    <t>Wizard Weapon Expertise</t>
+  </si>
+  <si>
+    <t>Archwizard's Spellcraft</t>
+  </si>
+  <si>
+    <t>Legendary Archwizard</t>
+  </si>
+  <si>
+    <t>Bard||||Druid||||Sorcerer||||Wizard</t>
+  </si>
+  <si>
+    <t>Arcane School</t>
+  </si>
+  <si>
+    <t>Spell Repertoire</t>
+  </si>
+  <si>
+    <t>Sorcerer||||Bard</t>
+  </si>
+  <si>
+    <t>Weapon Tricks</t>
+  </si>
+  <si>
+    <t>Spell Level 1</t>
+  </si>
+  <si>
+    <t>Spell Level 2</t>
+  </si>
+  <si>
+    <t>Spell Level 3</t>
+  </si>
+  <si>
+    <t>Spell Level 4</t>
+  </si>
+  <si>
+    <t>Spell Level 5</t>
+  </si>
+  <si>
+    <t>Spell Level 6</t>
+  </si>
+  <si>
+    <t>Spell Level 7</t>
+  </si>
+  <si>
+    <t>Spell Level 8</t>
+  </si>
+  <si>
+    <t>Spell Level 9</t>
+  </si>
+  <si>
+    <t>Bard||||Cleric||||Druid||||Sorcerer||||Wizard</t>
+  </si>
+  <si>
+    <t>Fear(Initial)</t>
+  </si>
+  <si>
+    <t>route class feat, initial</t>
+  </si>
+  <si>
+    <t>Simple|Expert|||Bombs|Expert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -704,9 +815,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -987,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,10 +1111,9 @@
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,547 +1127,449 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
       <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="G30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,21 +1577,21 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,21 +1599,21 @@
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,7 +1624,7 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,399 +1637,901 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D95" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" t="s">
         <v>163</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>180</v>
       </c>
+      <c r="B114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>183</v>
+      </c>
+      <c r="B115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>188</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>189</v>
+      </c>
+      <c r="B120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>233</v>
+      </c>
+      <c r="B126" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" t="s">
+        <v>155</v>
+      </c>
+      <c r="C130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>204</v>
+      </c>
+      <c r="B132" t="s">
+        <v>155</v>
+      </c>
+      <c r="C132" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>208</v>
+      </c>
+      <c r="B134" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" t="s">
+        <v>156</v>
+      </c>
+      <c r="C136" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" t="s">
+        <v>222</v>
+      </c>
+      <c r="C137" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>217</v>
+      </c>
+      <c r="B138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>231</v>
+      </c>
+      <c r="B139" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>228</v>
+      </c>
+      <c r="B143" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>230</v>
+      </c>
+      <c r="B144" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>234</v>
+      </c>
+      <c r="B145" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>235</v>
+      </c>
+      <c r="B146" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>236</v>
+      </c>
+      <c r="B147" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>237</v>
+      </c>
+      <c r="B148" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>238</v>
+      </c>
+      <c r="B149" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>239</v>
+      </c>
+      <c r="B150" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>240</v>
+      </c>
+      <c r="B151" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>241</v>
+      </c>
+      <c r="B152" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>242</v>
+      </c>
+      <c r="B153" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
